--- a/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
+++ b/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
@@ -1,21 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159C304-7468-E844-8969-CFEAE7E470DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>tot_cases</t>
+  </si>
+  <si>
+    <t>tot_daly</t>
+  </si>
+  <si>
+    <t>tot_medic_costs</t>
+  </si>
+  <si>
+    <t>tot_soc_costs</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>1236.656 (490.476 - 1982.835)</t>
+  </si>
+  <si>
+    <t>1343.426 (555.361 - 2131.492)</t>
+  </si>
+  <si>
+    <t>33.039 (13.104 - 52.973)</t>
+  </si>
+  <si>
+    <t>178.676 (73.863 - 283.488)</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>2011.13 (924.698 - 3097.563)</t>
+  </si>
+  <si>
+    <t>1682.168 (778.287 - 2586.048)</t>
+  </si>
+  <si>
+    <t>45.749 (21.035 - 70.463)</t>
+  </si>
+  <si>
+    <t>223.728 (103.512 - 343.944)</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>4412.427 (2208.469 - 6616.386)</t>
+  </si>
+  <si>
+    <t>6894.383 (3413.227 - 10375.539)</t>
+  </si>
+  <si>
+    <t>207.243 (103.727 - 310.758)</t>
+  </si>
+  <si>
+    <t>916.953 (453.959 - 1379.947)</t>
+  </si>
+  <si>
+    <t>cvd</t>
+  </si>
+  <si>
+    <t>15192.813 (8640.306 - 21745.32)</t>
+  </si>
+  <si>
+    <t>10571.869 (6000.219 - 15143.519)</t>
+  </si>
+  <si>
+    <t>318.107 (180.911 - 455.304)</t>
+  </si>
+  <si>
+    <t>1406.059 (798.029 - 2014.088)</t>
+  </si>
+  <si>
+    <t>diab2</t>
+  </si>
+  <si>
+    <t>19192.043 (8690.657 - 29693.429)</t>
+  </si>
+  <si>
+    <t>26317.48 (11804.223 - 40830.738)</t>
+  </si>
+  <si>
+    <t>700.778 (317.331 - 1084.226)</t>
+  </si>
+  <si>
+    <t>3500.225 (1569.962 - 5430.488)</t>
+  </si>
+  <si>
+    <t>mort</t>
+  </si>
+  <si>
+    <t>17393.832 (7340.669 - 27446.994)</t>
+  </si>
+  <si>
+    <t>167974.867 (70957.888 - 264991.847)</t>
+  </si>
+  <si>
+    <t>0 (0 - 0)</t>
+  </si>
+  <si>
+    <t>22340.657 (9437.399 - 35243.916)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +179,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,200 +476,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tot_cases</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tot_daly</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tot_medic_costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tot_soc_costs</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cc</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1236.656 (490.476 - 1982.835)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1343.426 (555.361 - 2131.492)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.039 (13.104 - 52.973)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>178.676 (73.863 - 283.488)</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dem</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2011.13 (924.698 - 3097.563)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1682.168 (778.287 - 2586.048)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.749 (21.035 - 70.463)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>223.728 (103.512 - 343.944)</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4412.427 (2208.469 - 6616.386)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6894.383 (3413.227 - 10375.539)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>207.243 (103.727 - 310.758)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>916.953 (453.959 - 1379.947)</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cvd</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15192.813 (8640.306 - 21745.32)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10571.869 (6000.219 - 15143.519)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>318.107 (180.911 - 455.304)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1406.059 (798.029 - 2014.088)</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>diab2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>19192.043 (8690.657 - 29693.429)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>26317.48 (11804.223 - 40830.738)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>700.778 (317.331 - 1084.226)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3500.225 (1569.962 - 5430.488)</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mort</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>17393.832 (7340.669 - 27446.994)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>167974.867 (70957.888 - 264991.847)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0 (0 - 0)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22340.657 (9437.399 - 35243.916)</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
+++ b/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159C304-7468-E844-8969-CFEAE7E470DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE998F-AFAA-5641-BBE5-F4FD61FC2A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12820" yWindow="1400" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,12 +480,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="30" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
+++ b/output/Tables/Linear/HIA_per_disease_Rubin.xlsx
@@ -1,137 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE998F-AFAA-5641-BBE5-F4FD61FC2A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="1400" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>tot_cases</t>
-  </si>
-  <si>
-    <t>tot_daly</t>
-  </si>
-  <si>
-    <t>tot_medic_costs</t>
-  </si>
-  <si>
-    <t>tot_soc_costs</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>1236.656 (490.476 - 1982.835)</t>
-  </si>
-  <si>
-    <t>1343.426 (555.361 - 2131.492)</t>
-  </si>
-  <si>
-    <t>33.039 (13.104 - 52.973)</t>
-  </si>
-  <si>
-    <t>178.676 (73.863 - 283.488)</t>
-  </si>
-  <si>
-    <t>dem</t>
-  </si>
-  <si>
-    <t>2011.13 (924.698 - 3097.563)</t>
-  </si>
-  <si>
-    <t>1682.168 (778.287 - 2586.048)</t>
-  </si>
-  <si>
-    <t>45.749 (21.035 - 70.463)</t>
-  </si>
-  <si>
-    <t>223.728 (103.512 - 343.944)</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>4412.427 (2208.469 - 6616.386)</t>
-  </si>
-  <si>
-    <t>6894.383 (3413.227 - 10375.539)</t>
-  </si>
-  <si>
-    <t>207.243 (103.727 - 310.758)</t>
-  </si>
-  <si>
-    <t>916.953 (453.959 - 1379.947)</t>
-  </si>
-  <si>
-    <t>cvd</t>
-  </si>
-  <si>
-    <t>15192.813 (8640.306 - 21745.32)</t>
-  </si>
-  <si>
-    <t>10571.869 (6000.219 - 15143.519)</t>
-  </si>
-  <si>
-    <t>318.107 (180.911 - 455.304)</t>
-  </si>
-  <si>
-    <t>1406.059 (798.029 - 2014.088)</t>
-  </si>
-  <si>
-    <t>diab2</t>
-  </si>
-  <si>
-    <t>19192.043 (8690.657 - 29693.429)</t>
-  </si>
-  <si>
-    <t>26317.48 (11804.223 - 40830.738)</t>
-  </si>
-  <si>
-    <t>700.778 (317.331 - 1084.226)</t>
-  </si>
-  <si>
-    <t>3500.225 (1569.962 - 5430.488)</t>
-  </si>
-  <si>
-    <t>mort</t>
-  </si>
-  <si>
-    <t>17393.832 (7340.669 - 27446.994)</t>
-  </si>
-  <si>
-    <t>167974.867 (70957.888 - 264991.847)</t>
-  </si>
-  <si>
-    <t>0 (0 - 0)</t>
-  </si>
-  <si>
-    <t>22340.657 (9437.399 - 35243.916)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -265,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,138 +350,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tot_soc_costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1236.656 (490.476 - 1982.835 )</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1343.426 (555.361 - 2131.492 )</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.039 (13.104 - 52.973 )</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>178.676 (73.863 - 283.488 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dem</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2011.13 (924.698 - 3097.563 )</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1682.168 (778.287 - 2586.048 )</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.749 (21.035 - 70.463 )</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>223.728 (103.512 - 343.944 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4412.427 (2208.469 - 6616.386 )</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6894.383 (3413.227 - 10375.539 )</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>207.243 (103.727 - 310.758 )</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>916.953 (453.959 - 1379.947 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15192.813 (8640.306 - 21745.32 )</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10571.869 (6000.219 - 15143.519 )</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>318.107 (180.911 - 455.304 )</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1406.059 (798.029 - 2014.088 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>diab2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>19192.043 (8690.657 - 29693.429 )</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>26317.48 (11804.223 - 40830.738 )</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>700.778 (317.331 - 1084.226 )</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3500.225 (1569.962 - 5430.488 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mort</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17393.832 (7340.669 - 27446.994 )</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>167974.867 (70957.888 - 264991.847 )</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0 (0 - 0 )</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22340.657 (9437.399 - 35243.916 )</t>
+        </is>
       </c>
     </row>
   </sheetData>
